--- a/xlsx/后勤_intext.xlsx
+++ b/xlsx/后勤_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="267">
   <si>
     <t>后勤</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_后勤</t>
+    <t>军事</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_后勤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%B5%81</t>
@@ -41,25 +41,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>運輸</t>
+    <t>运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>藝術</t>
+    <t>艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學</t>
+    <t>科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%89%E5%84%B2</t>
   </si>
   <si>
-    <t>倉儲</t>
+    <t>仓储</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E5%8C%BB</t>
@@ -71,43 +71,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>服務</t>
+    <t>服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學</t>
+    <t>数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%96%87</t>
   </si>
   <si>
-    <t>希臘文</t>
+    <t>希腊文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>拜占庭帝國</t>
+    <t>拜占庭帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%95%A5</t>
   </si>
   <si>
-    <t>戰略</t>
+    <t>战略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E8%A1%93</t>
   </si>
   <si>
-    <t>戰術</t>
+    <t>战术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%98</t>
@@ -137,19 +137,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9C%80</t>
   </si>
   <si>
-    <t>軍需</t>
+    <t>军需</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BF%AE%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>維修管理</t>
+    <t>维修管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E5%BE%8C%E5%8B%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>總後勤部</t>
+    <t>总后勤部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E8%A7%A3%E6%94%BE%E5%86%9B</t>
@@ -161,27 +161,24 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%BE%8C%E5%8B%A4%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>聯合後勤司令部</t>
+    <t>联合后勤司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>中華民國國軍</t>
+    <t>中华民国国军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1%E5%8D%81%E5%A4%A7%E8%BB%8D%E4%BA%8B%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>毛澤東十大軍事原則</t>
+    <t>毛泽东十大军事原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B</t>
   </si>
   <si>
-    <t>军事</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>陸軍</t>
+    <t>陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%88%98</t>
@@ -221,13 +218,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>太空戰爭</t>
+    <t>太空战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%A0%B4</t>
   </si>
   <si>
-    <t>戰場</t>
+    <t>战场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E5%B8%A6</t>
@@ -239,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E6%88%B0</t>
   </si>
   <si>
-    <t>網路戰</t>
+    <t>网路战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%8E%AE%E6%88%B0</t>
   </si>
   <si>
-    <t>城鎮戰</t>
+    <t>城镇战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>騎兵</t>
+    <t>骑兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -299,13 +296,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%98%E5%85%B5</t>
   </si>
   <si>
-    <t>傘兵</t>
+    <t>伞兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E6%88%B0%E9%AC%A5%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>裝甲戰鬥車輛</t>
+    <t>装甲战斗车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%82%AE</t>
@@ -317,19 +314,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>飛彈</t>
+    <t>飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E9%A8%8E%E5%85%B5%E5%9C%98</t>
   </si>
   <si>
-    <t>裝甲騎兵團</t>
+    <t>装甲骑兵团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>軍艦</t>
+    <t>军舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9C%E8%89%87</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰鬥機</t>
+    <t>战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>化學武器</t>
+    <t>化学武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%88%98%E4%BA%89</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%8F%E6%A8%A1%E6%AE%BA%E5%82%B7%E6%80%A7%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>大規模殺傷性武器</t>
+    <t>大规模杀伤性武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%88%98</t>
@@ -389,19 +386,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E6%9C%AF</t>
   </si>
   <si>
-    <t>战术</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%A6%8F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>常規戰爭</t>
+    <t>常规战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>會戰</t>
+    <t>会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%91%E5%A3%95%E6%88%98</t>
@@ -413,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9B%BB%E6%88%B0</t>
   </si>
   <si>
-    <t>閃電戰</t>
+    <t>闪电战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unconventional_warfare</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%99%90%E6%88%B0</t>
   </si>
   <si>
-    <t>超限戰</t>
+    <t>超限战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%81%E5%A1%9E</t>
@@ -437,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A3%B2%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>兩棲作戰</t>
+    <t>两栖作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E5%88%B6%E6%BD%9B%E8%89%87%E6%88%B0</t>
   </si>
   <si>
-    <t>無限制潛艇戰</t>
+    <t>无限制潜艇战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E4%BD%93%E6%88%98</t>
@@ -455,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9B%B7%E9%99%A3</t>
   </si>
   <si>
-    <t>地雷陣</t>
+    <t>地雷阵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%AE%E5%85%B5</t>
@@ -473,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%B1%E6%B7%B1%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>縱深作戰</t>
+    <t>纵深作战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/joint_warfare</t>
@@ -497,37 +491,34 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%BC%B7%E5%BA%A6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>低強度戰爭</t>
+    <t>低强度战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%82%8A%E6%88%B0%E8%A1%93</t>
   </si>
   <si>
-    <t>費邊戰術</t>
+    <t>费边战术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E4%B8%AD%E5%BF%83%E6%88%B0</t>
   </si>
   <si>
-    <t>網絡中心戰</t>
+    <t>网络中心战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E9%80%B8%E5%BE%85%E5%8B%9E</t>
   </si>
   <si>
-    <t>以逸待勞</t>
+    <t>以逸待劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5</t>
   </si>
   <si>
-    <t>战略</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E8%A1%9B%E6%88%B0</t>
   </si>
   <si>
-    <t>防衛戰</t>
+    <t>防卫战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5</t>
@@ -551,31 +542,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%9D%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>武裝衝突</t>
+    <t>武装冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E4%BA%92%E4%BF%9D%E8%AD%89%E6%AF%80%E6%BB%85</t>
   </si>
   <si>
-    <t>相互保證毀滅</t>
+    <t>相互保证毁灭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>正義戰爭</t>
+    <t>正义战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8</t>
   </si>
   <si>
-    <t>戰略轟炸</t>
+    <t>战略轰炸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E9%96%93%E8%AB%9C</t>
   </si>
   <si>
-    <t>軍事間諜</t>
+    <t>军事间谍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E5%9C%9F%E6%94%BF%E7%AD%96</t>
@@ -611,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>軍事組織</t>
+    <t>军事组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E5%8F%82%E8%B0%8B%E9%83%A8</t>
@@ -623,13 +614,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%A3%E5%BD%A2</t>
   </si>
   <si>
-    <t>陣形</t>
+    <t>阵形</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%88%B0%E5%BA%8F%E5%88%97</t>
   </si>
   <si>
-    <t>作戰序列</t>
+    <t>作战序列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E8%A1%94</t>
@@ -647,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%82%99%E8%BB%8D%E4%BA%8B%E5%8B%95%E5%93%A1</t>
   </si>
   <si>
-    <t>後備軍事動員</t>
+    <t>后备军事动员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A5%E7%BB%99%E7%BA%BF</t>
@@ -659,13 +650,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%B7%A5%E6%A5%AD%E8%A4%87%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>軍事工業複合體</t>
+    <t>军事工业复合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BE%8C%E6%96%B9</t>
   </si>
   <si>
-    <t>大後方</t>
+    <t>大后方</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -677,13 +668,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%B3%95%E5%AF%A9%E5%88%A4</t>
   </si>
   <si>
-    <t>軍法審判</t>
+    <t>军法审判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%9D%E8%A1%9D%E7%AA%81%E6%B3%95</t>
   </si>
   <si>
-    <t>武裝衝突法</t>
+    <t>武装冲突法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%8D%A0%E9%A2%86</t>
@@ -713,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B5%E5%85%B5%E5%88%B6</t>
   </si>
   <si>
-    <t>徵兵制</t>
+    <t>征兵制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8F%98</t>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>軍政府</t>
+    <t>军政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%92%E4%B8%A5</t>
@@ -755,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>軍事學</t>
+    <t>军事学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E8%AE%BA</t>
@@ -767,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E5%AD%90%E5%85%B5%E6%B3%95</t>
   </si>
   <si>
-    <t>孫子兵法</t>
+    <t>孙子兵法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E6%80%9D%E6%83%B3</t>
@@ -779,13 +770,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>軍事歷史學</t>
+    <t>军事历史学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%85%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>三十六計</t>
+    <t>三十六计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%86%9B%E4%BA%8B%E5%88%97%E8%A1%A8</t>
@@ -797,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%BD%B9%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>戰役列表</t>
+    <t>战役列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E4%BD%8D%E4%B8%BB%E4%B9%89</t>
@@ -809,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%A8%AE%E5%B0%8D%E7%AB%8B</t>
   </si>
   <si>
-    <t>軍種對立</t>
+    <t>军种对立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -1949,7 +1940,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
         <v>9</v>
@@ -1975,10 +1966,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2004,10 +1995,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2033,10 +2024,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2062,10 +2053,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2091,10 +2082,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2120,10 +2111,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2149,10 +2140,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2178,10 +2169,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2207,10 +2198,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2236,10 +2227,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2265,10 +2256,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2294,10 +2285,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2323,10 +2314,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2352,10 +2343,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>5</v>
@@ -2381,10 +2372,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2410,10 +2401,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2439,10 +2430,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2468,10 +2459,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2497,10 +2488,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2526,10 +2517,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2555,10 +2546,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2584,10 +2575,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2613,10 +2604,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2642,10 +2633,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2671,10 +2662,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2700,10 +2691,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2729,10 +2720,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2758,10 +2749,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2787,10 +2778,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2816,10 +2807,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2845,10 +2836,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2874,10 +2865,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2903,10 +2894,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2932,10 +2923,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2961,10 +2952,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2990,10 +2981,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3019,10 +3010,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3048,10 +3039,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3077,10 +3068,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3106,10 +3097,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3135,10 +3126,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3164,10 +3155,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3193,10 +3184,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3222,10 +3213,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3251,10 +3242,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3280,10 +3271,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3309,10 +3300,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3338,10 +3329,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3367,10 +3358,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3396,10 +3387,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3425,10 +3416,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3454,10 +3445,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3483,10 +3474,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3512,10 +3503,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3541,10 +3532,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3570,10 +3561,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3599,10 +3590,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3628,10 +3619,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -3657,10 +3648,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3686,10 +3677,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3715,10 +3706,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3744,10 +3735,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3773,10 +3764,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -3802,10 +3793,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3831,10 +3822,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3860,10 +3851,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3889,10 +3880,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3918,10 +3909,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3947,10 +3938,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3976,10 +3967,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4005,10 +3996,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4034,10 +4025,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4063,10 +4054,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4092,10 +4083,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4121,10 +4112,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4150,10 +4141,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4179,10 +4170,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4208,10 +4199,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4237,10 +4228,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4266,10 +4257,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>80</v>
+      </c>
+      <c r="F107" t="s">
         <v>81</v>
-      </c>
-      <c r="F107" t="s">
-        <v>82</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4295,10 +4286,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4324,10 +4315,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4353,10 +4344,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4382,10 +4373,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4411,10 +4402,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4440,10 +4431,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4469,10 +4460,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4498,10 +4489,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4527,10 +4518,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4556,10 +4547,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4585,10 +4576,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4614,10 +4605,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4643,10 +4634,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4672,10 +4663,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4701,10 +4692,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4730,10 +4721,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4759,10 +4750,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F124" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4788,10 +4779,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4817,10 +4808,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4846,10 +4837,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4875,10 +4866,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4904,10 +4895,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4933,10 +4924,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4962,10 +4953,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4991,10 +4982,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5020,10 +5011,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5049,10 +5040,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5078,10 +5069,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5107,10 +5098,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5136,10 +5127,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5165,10 +5156,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>

--- a/xlsx/后勤_intext.xlsx
+++ b/xlsx/后勤_intext.xlsx
@@ -29,7 +29,7 @@
     <t>軍事</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_后勤</t>
+    <t>体育运动_体育运动_古埃及_后勤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%B5%81</t>
